--- a/data/trans_orig/P43D-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>132251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114393</v>
+        <v>113551</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>152089</v>
+        <v>151786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2866999671478952</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2479876123443855</v>
+        <v>0.2461620743865678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3297056609666327</v>
+        <v>0.3290486670934714</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>120164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100843</v>
+        <v>101756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139542</v>
+        <v>139432</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2604972532910348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2186124263157712</v>
+        <v>0.2205921469842028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3025057416687728</v>
+        <v>0.3022675889500767</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>119580</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102323</v>
+        <v>102119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>139499</v>
+        <v>138779</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2592315608892026</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2218201074315381</v>
+        <v>0.2213791737449308</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3024124016253357</v>
+        <v>0.3008507903185145</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>89292</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71939</v>
+        <v>71969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106139</v>
+        <v>107358</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1935712186718674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1559533663320491</v>
+        <v>0.1560179682143744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2300935063800272</v>
+        <v>0.2327362579928099</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>130981</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>112328</v>
+        <v>111984</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>152021</v>
+        <v>153544</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2497808274230033</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2142095131522793</v>
+        <v>0.2135535875047541</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2899046171522694</v>
+        <v>0.2928087819486576</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>160090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139992</v>
+        <v>138590</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181136</v>
+        <v>180939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3052927333595939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2669657518761884</v>
+        <v>0.2642930007453594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3454272668452424</v>
+        <v>0.345051509310601</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>138483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>119249</v>
+        <v>119783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159876</v>
+        <v>161042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2640875580435868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2274092432968172</v>
+        <v>0.2284264997999475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3048848244978885</v>
+        <v>0.3071085509873485</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>94829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76660</v>
+        <v>77827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114025</v>
+        <v>114631</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1808388811738159</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1461903436025474</v>
+        <v>0.1484156717694828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2174460535302921</v>
+        <v>0.2186013063156682</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>112114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94820</v>
+        <v>92919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131894</v>
+        <v>131893</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.204222231273373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1727206761496158</v>
+        <v>0.169257812527617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2402535126535657</v>
+        <v>0.2402513643389651</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>193660</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>171771</v>
+        <v>174164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>216342</v>
+        <v>217331</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3527632751412387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3128913927089981</v>
+        <v>0.3172515610096611</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3940805927319569</v>
+        <v>0.3958826356477835</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>141475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121803</v>
+        <v>120507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162662</v>
+        <v>163358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2577057084369661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2218722871975182</v>
+        <v>0.2195109021415189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2962991529521943</v>
+        <v>0.2975664901594703</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>101731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84950</v>
+        <v>83003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122034</v>
+        <v>120882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1853087851484223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1547421170122365</v>
+        <v>0.1511958486394192</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2222919150277765</v>
+        <v>0.2201942234104223</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>37565</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27611</v>
+        <v>28100</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49428</v>
+        <v>49307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1761811242984654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1294974705597013</v>
+        <v>0.1317917015997555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2318212037168534</v>
+        <v>0.2312547776034725</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>70929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57351</v>
+        <v>57387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85498</v>
+        <v>84857</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3326613421671414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2689815620142988</v>
+        <v>0.2691462392704126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4009915521429106</v>
+        <v>0.397986208323178</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>61690</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49481</v>
+        <v>49192</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75242</v>
+        <v>75674</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.289330491727918</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.232067029814355</v>
+        <v>0.2307129238430432</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3528914954683219</v>
+        <v>0.3549160592272884</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>43033</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32598</v>
+        <v>33140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55742</v>
+        <v>55786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2018270418064752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1528869048315534</v>
+        <v>0.1554262644227569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2614331900799537</v>
+        <v>0.2616403613264258</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>412910</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>375859</v>
+        <v>375045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>445881</v>
+        <v>447915</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2362368201379777</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2150387744997122</v>
+        <v>0.2145732617810256</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.255100220558311</v>
+        <v>0.2562638930234429</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>544843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>508306</v>
+        <v>506338</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>587471</v>
+        <v>581374</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3117189809096756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2908156036954663</v>
+        <v>0.2896895620686782</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3361077931604769</v>
+        <v>0.3326195689004445</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>461228</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>425266</v>
+        <v>428522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>500325</v>
+        <v>500099</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2638808542863553</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2433057889143685</v>
+        <v>0.2451688066043796</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2862491200166853</v>
+        <v>0.2861196683918908</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>328884</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>297838</v>
+        <v>295532</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>364128</v>
+        <v>363154</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1881633446659914</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1704008462456563</v>
+        <v>0.1690819306091715</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2083273840544521</v>
+        <v>0.2077700645201251</v>
       </c>
     </row>
     <row r="28">
@@ -1487,19 +1487,19 @@
         <v>157284</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135249</v>
+        <v>136737</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182222</v>
+        <v>180509</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2134255321668465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1835255517896447</v>
+        <v>0.1855448584859742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2472645905964295</v>
+        <v>0.2449403937415621</v>
       </c>
     </row>
     <row r="5">
@@ -1516,19 +1516,19 @@
         <v>246623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222136</v>
+        <v>220849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274104</v>
+        <v>271360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3346535702335022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3014266634074518</v>
+        <v>0.2996793556047052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3719432319370911</v>
+        <v>0.3682209627133082</v>
       </c>
     </row>
     <row r="6">
@@ -1545,19 +1545,19 @@
         <v>194019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>169804</v>
+        <v>169698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>217954</v>
+        <v>219221</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2632729796417358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2304138964812463</v>
+        <v>0.2302710767417089</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2957517740185555</v>
+        <v>0.2974711851872553</v>
       </c>
     </row>
     <row r="7">
@@ -1574,19 +1574,19 @@
         <v>139024</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119692</v>
+        <v>118383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162695</v>
+        <v>161110</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1886479179579156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1624156560815552</v>
+        <v>0.1606390608179312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2207683079117623</v>
+        <v>0.2186179260920729</v>
       </c>
     </row>
     <row r="8">
@@ -1636,19 +1636,19 @@
         <v>142418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>116936</v>
+        <v>121722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>161326</v>
+        <v>166142</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2007992120999507</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1648709750936784</v>
+        <v>0.1716196127482292</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2274577658862471</v>
+        <v>0.2342480090860807</v>
       </c>
     </row>
     <row r="10">
@@ -1665,19 +1665,19 @@
         <v>238631</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212325</v>
+        <v>212852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>264232</v>
+        <v>266161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3364535062736045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.299363494631091</v>
+        <v>0.3001059679726613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3725484551709142</v>
+        <v>0.3752682277035864</v>
       </c>
     </row>
     <row r="11">
@@ -1694,19 +1694,19 @@
         <v>202109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180437</v>
+        <v>178559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>228466</v>
+        <v>226606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2849591513868457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2544035074906615</v>
+        <v>0.2517554630315644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3221210155649016</v>
+        <v>0.3194993174552357</v>
       </c>
     </row>
     <row r="12">
@@ -1723,19 +1723,19 @@
         <v>126097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>103137</v>
+        <v>105533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146839</v>
+        <v>145594</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.177788130239599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1454163532209281</v>
+        <v>0.1487936473825595</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2070333988738063</v>
+        <v>0.2052773385646502</v>
       </c>
     </row>
     <row r="13">
@@ -1785,19 +1785,19 @@
         <v>85892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70297</v>
+        <v>67432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105341</v>
+        <v>103015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.162595998548061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.133075462587374</v>
+        <v>0.1276509893296761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1994148970558271</v>
+        <v>0.1950110117115454</v>
       </c>
     </row>
     <row r="15">
@@ -1814,19 +1814,19 @@
         <v>197436</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>175240</v>
+        <v>173177</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>218989</v>
+        <v>220379</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3737525760928815</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3317358455930652</v>
+        <v>0.3278293649576316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4145535016130197</v>
+        <v>0.4171849458249937</v>
       </c>
     </row>
     <row r="16">
@@ -1843,19 +1843,19 @@
         <v>150732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131611</v>
+        <v>129758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172293</v>
+        <v>171793</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2853417214189499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2491452414692599</v>
+        <v>0.2456362795690516</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3261570114446535</v>
+        <v>0.3252107824774346</v>
       </c>
     </row>
     <row r="17">
@@ -1872,19 +1872,19 @@
         <v>94192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77734</v>
+        <v>76720</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115090</v>
+        <v>114949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1783097039401076</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1471529397817213</v>
+        <v>0.1452346136760362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2178701194602615</v>
+        <v>0.2176020789741595</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>58461</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44795</v>
+        <v>44147</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75166</v>
+        <v>73972</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1918127179928457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1469734878205981</v>
+        <v>0.1448488782660085</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2466220017801867</v>
+        <v>0.24270406356173</v>
       </c>
     </row>
     <row r="20">
@@ -1963,19 +1963,19 @@
         <v>105665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87944</v>
+        <v>88171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124259</v>
+        <v>125034</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3466893405863715</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2885470561938583</v>
+        <v>0.2892916996858266</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4076964945991839</v>
+        <v>0.4102408677701018</v>
       </c>
     </row>
     <row r="21">
@@ -1992,19 +1992,19 @@
         <v>88687</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72212</v>
+        <v>73443</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106324</v>
+        <v>107469</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2909856095797191</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2369281680625267</v>
+        <v>0.2409683694818857</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3488511984922325</v>
+        <v>0.3526078906004615</v>
       </c>
     </row>
     <row r="22">
@@ -2021,19 +2021,19 @@
         <v>51969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38164</v>
+        <v>37573</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67008</v>
+        <v>67973</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1705123318410638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1252172215484581</v>
+        <v>0.123277500371395</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2198532677109753</v>
+        <v>0.2230198737564107</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>444055</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>406499</v>
+        <v>406668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>488850</v>
+        <v>487904</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1948257863015667</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1783482180160435</v>
+        <v>0.1784227397686322</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2144794151262703</v>
+        <v>0.2140644384507393</v>
       </c>
     </row>
     <row r="25">
@@ -2112,19 +2112,19 @@
         <v>788355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>740159</v>
+        <v>742712</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>838549</v>
+        <v>835821</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3458849564892896</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3247393266089103</v>
+        <v>0.3258593191630654</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3679072507638076</v>
+        <v>0.3667102483051755</v>
       </c>
     </row>
     <row r="26">
@@ -2141,19 +2141,19 @@
         <v>635548</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>594137</v>
+        <v>592213</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>682392</v>
+        <v>684084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2788418627475198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2606732469632413</v>
+        <v>0.2598291004224496</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2993946206465807</v>
+        <v>0.300136763642135</v>
       </c>
     </row>
     <row r="27">
@@ -2170,19 +2170,19 @@
         <v>411283</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>375519</v>
+        <v>371689</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>451689</v>
+        <v>451846</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.180447394461624</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1647560167784945</v>
+        <v>0.1630758507431271</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.198175002643274</v>
+        <v>0.1982440963625799</v>
       </c>
     </row>
     <row r="28">
@@ -2350,19 +2350,19 @@
         <v>186532</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164378</v>
+        <v>163774</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211354</v>
+        <v>213451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2455001781200976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2163429688496917</v>
+        <v>0.2155485560388888</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.27817005217621</v>
+        <v>0.2809298013731953</v>
       </c>
     </row>
     <row r="5">
@@ -2379,19 +2379,19 @@
         <v>324694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298150</v>
+        <v>299452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354404</v>
+        <v>354275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4273398634111228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3924051452038221</v>
+        <v>0.3941178795190847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4664429658543029</v>
+        <v>0.4662727232051619</v>
       </c>
     </row>
     <row r="6">
@@ -2408,19 +2408,19 @@
         <v>158530</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>136567</v>
+        <v>137885</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182807</v>
+        <v>181170</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2086459852707594</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1797398796657913</v>
+        <v>0.1814752120698747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2405988522167753</v>
+        <v>0.2384438608145331</v>
       </c>
     </row>
     <row r="7">
@@ -2437,19 +2437,19 @@
         <v>90047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73403</v>
+        <v>74097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108901</v>
+        <v>109357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1185139731980202</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09660795160774266</v>
+        <v>0.09752161917602897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1433281712372333</v>
+        <v>0.1439286584510097</v>
       </c>
     </row>
     <row r="8">
@@ -2499,19 +2499,19 @@
         <v>157528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>136061</v>
+        <v>137825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>181054</v>
+        <v>182571</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2459353010444788</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.212419657193976</v>
+        <v>0.2151746151203576</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2826646440027213</v>
+        <v>0.285032903161313</v>
       </c>
     </row>
     <row r="10">
@@ -2528,19 +2528,19 @@
         <v>263769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>238354</v>
+        <v>237708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>288467</v>
+        <v>288610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4117992266978614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3721215197982317</v>
+        <v>0.3711136913538883</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4503595017919264</v>
+        <v>0.4505826743319088</v>
       </c>
     </row>
     <row r="11">
@@ -2557,19 +2557,19 @@
         <v>134433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113148</v>
+        <v>113901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154882</v>
+        <v>155693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2098783704046029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1766486007919156</v>
+        <v>0.1778241138371755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2418043221902236</v>
+        <v>0.243070775466201</v>
       </c>
     </row>
     <row r="12">
@@ -2586,19 +2586,19 @@
         <v>84798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68994</v>
+        <v>67256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>105196</v>
+        <v>104683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1323871018530569</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1077147474617149</v>
+        <v>0.1050003937920467</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.164232935875103</v>
+        <v>0.1634324900291715</v>
       </c>
     </row>
     <row r="13">
@@ -2648,19 +2648,19 @@
         <v>110684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93026</v>
+        <v>93133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130926</v>
+        <v>130881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2305191141762105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1937432462674165</v>
+        <v>0.1939665706388233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2726780181403824</v>
+        <v>0.2725840804277567</v>
       </c>
     </row>
     <row r="15">
@@ -2677,19 +2677,19 @@
         <v>197009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>176874</v>
+        <v>176674</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>219445</v>
+        <v>218892</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4103072033512806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3683736415068913</v>
+        <v>0.3679561474488314</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4570345312572863</v>
+        <v>0.455883938566255</v>
       </c>
     </row>
     <row r="16">
@@ -2706,19 +2706,19 @@
         <v>110488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93005</v>
+        <v>92132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130063</v>
+        <v>130501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2301118042463308</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1937007187437413</v>
+        <v>0.1918829025749697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2708795553872695</v>
+        <v>0.2717929608287634</v>
       </c>
     </row>
     <row r="17">
@@ -2735,19 +2735,19 @@
         <v>61969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47912</v>
+        <v>48583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76917</v>
+        <v>78837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.129061878226178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09978545735201853</v>
+        <v>0.1011841024929469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1601943219872652</v>
+        <v>0.1641920963867261</v>
       </c>
     </row>
     <row r="18">
@@ -2797,19 +2797,19 @@
         <v>72355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57842</v>
+        <v>58278</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90137</v>
+        <v>91460</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2092867969167855</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1673101441053286</v>
+        <v>0.1685708967682448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2607227683018384</v>
+        <v>0.2645499778538706</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>143849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126073</v>
+        <v>122300</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163829</v>
+        <v>160993</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4160857975070074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3646679092306334</v>
+        <v>0.3537537753415177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4738785169066044</v>
+        <v>0.4656754499269901</v>
       </c>
     </row>
     <row r="21">
@@ -2855,19 +2855,19 @@
         <v>85239</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69471</v>
+        <v>69150</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102483</v>
+        <v>104008</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2465545588094827</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2009454516000747</v>
+        <v>0.2000184759099481</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2964343237261873</v>
+        <v>0.3008454398343099</v>
       </c>
     </row>
     <row r="22">
@@ -2884,19 +2884,19 @@
         <v>44277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31483</v>
+        <v>32185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58635</v>
+        <v>58032</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1280728467667245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09106394670404724</v>
+        <v>0.0930949877833524</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1696036300008404</v>
+        <v>0.1678598024916704</v>
       </c>
     </row>
     <row r="23">
@@ -2946,19 +2946,19 @@
         <v>527098</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>487685</v>
+        <v>486852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>570840</v>
+        <v>568053</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2367704417864226</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2190662060777543</v>
+        <v>0.2186919499027859</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2564191392822441</v>
+        <v>0.2551671207171097</v>
       </c>
     </row>
     <row r="25">
@@ -2975,19 +2975,19 @@
         <v>929320</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>882645</v>
+        <v>884965</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>978197</v>
+        <v>975047</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.417447134802042</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3964807983329601</v>
+        <v>0.3975231705709377</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4394026843367743</v>
+        <v>0.4379876434664901</v>
       </c>
     </row>
     <row r="26">
@@ -3004,19 +3004,19 @@
         <v>488689</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>448150</v>
+        <v>452023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>526565</v>
+        <v>533338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2195173978170883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2013074239485583</v>
+        <v>0.2030471579626085</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2365311700015809</v>
+        <v>0.2395736315147714</v>
       </c>
     </row>
     <row r="27">
@@ -3033,19 +3033,19 @@
         <v>281091</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>252974</v>
+        <v>249483</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>311492</v>
+        <v>311312</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1262650255944471</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1136348216935702</v>
+        <v>0.1120667564769817</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1399208583415833</v>
+        <v>0.1398403053692863</v>
       </c>
     </row>
     <row r="28">
@@ -3213,19 +3213,19 @@
         <v>86893</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74013</v>
+        <v>74697</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99351</v>
+        <v>99568</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3568411286450574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3039454326026577</v>
+        <v>0.3067577173545883</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4080023713799438</v>
+        <v>0.408892471507514</v>
       </c>
     </row>
     <row r="5">
@@ -3242,19 +3242,19 @@
         <v>75395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63823</v>
+        <v>62204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89238</v>
+        <v>87954</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3096209957979325</v>
+        <v>0.3096209957979324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2621017926795322</v>
+        <v>0.2554535852942681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3664704668385301</v>
+        <v>0.3612003939899755</v>
       </c>
     </row>
     <row r="6">
@@ -3271,19 +3271,19 @@
         <v>46468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36720</v>
+        <v>37526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57631</v>
+        <v>58519</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.190829585480744</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1507971394884721</v>
+        <v>0.1541080338656149</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2366737481089575</v>
+        <v>0.240318098072253</v>
       </c>
     </row>
     <row r="7">
@@ -3300,19 +3300,19 @@
         <v>34750</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26501</v>
+        <v>25489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45629</v>
+        <v>44041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.142708290076266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1088305739878556</v>
+        <v>0.1046751357005566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1873851411616666</v>
+        <v>0.180860086063648</v>
       </c>
     </row>
     <row r="8">
@@ -3362,19 +3362,19 @@
         <v>144306</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>128764</v>
+        <v>128926</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>161180</v>
+        <v>160803</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3298266665946385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2943041831189701</v>
+        <v>0.2946753983188938</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3683955768505942</v>
+        <v>0.3675333674471812</v>
       </c>
     </row>
     <row r="10">
@@ -3391,19 +3391,19 @@
         <v>163047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145456</v>
+        <v>144660</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180820</v>
+        <v>179157</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3726627838339263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3324564536367136</v>
+        <v>0.3306365778727222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.413282894694561</v>
+        <v>0.4094820936071148</v>
       </c>
     </row>
     <row r="11">
@@ -3420,19 +3420,19 @@
         <v>82853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69342</v>
+        <v>69353</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97765</v>
+        <v>98369</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1893707470883167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.158488208440815</v>
+        <v>0.1585134066703546</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2234520156544741</v>
+        <v>0.2248324685166686</v>
       </c>
     </row>
     <row r="12">
@@ -3449,19 +3449,19 @@
         <v>47313</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36974</v>
+        <v>37406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60634</v>
+        <v>58804</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1081398024831186</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0845071428934752</v>
+        <v>0.08549587172555723</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1385848335194725</v>
+        <v>0.1344019884614827</v>
       </c>
     </row>
     <row r="13">
@@ -3511,19 +3511,19 @@
         <v>136213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120347</v>
+        <v>118628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152309</v>
+        <v>151021</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2879349757821693</v>
+        <v>0.2879349757821694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2543968246476522</v>
+        <v>0.2507627468429625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3219591927688041</v>
+        <v>0.319237542785776</v>
       </c>
     </row>
     <row r="15">
@@ -3540,19 +3540,19 @@
         <v>167745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>151073</v>
+        <v>149761</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>188132</v>
+        <v>185571</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3545893712622798</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3193477850523114</v>
+        <v>0.3165738418469506</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.397685598588806</v>
+        <v>0.3922704262205755</v>
       </c>
     </row>
     <row r="16">
@@ -3569,19 +3569,19 @@
         <v>105493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90419</v>
+        <v>91553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121459</v>
+        <v>121583</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2229971296152591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1911335546772922</v>
+        <v>0.1935307165945977</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2567466323832311</v>
+        <v>0.2570085749069738</v>
       </c>
     </row>
     <row r="17">
@@ -3598,19 +3598,19 @@
         <v>63617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50095</v>
+        <v>50475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76496</v>
+        <v>77199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1344785233402918</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1058931237568978</v>
+        <v>0.1066964567109443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1617017162659901</v>
+        <v>0.1631882885659206</v>
       </c>
     </row>
     <row r="18">
@@ -3660,19 +3660,19 @@
         <v>102292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88849</v>
+        <v>88086</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119724</v>
+        <v>117052</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2369225516214795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2057847048180813</v>
+        <v>0.2040191227258294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2772951408968434</v>
+        <v>0.2711067469897702</v>
       </c>
     </row>
     <row r="20">
@@ -3689,19 +3689,19 @@
         <v>136089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120090</v>
+        <v>119915</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152617</v>
+        <v>152254</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3151994694636611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.278144674904821</v>
+        <v>0.277738826016761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3534812941139358</v>
+        <v>0.3526400516081722</v>
       </c>
     </row>
     <row r="21">
@@ -3718,19 +3718,19 @@
         <v>112822</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97105</v>
+        <v>96683</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129181</v>
+        <v>130224</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2613111996502784</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2249082133175201</v>
+        <v>0.2239298863999036</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2991995681090538</v>
+        <v>0.301616512584406</v>
       </c>
     </row>
     <row r="22">
@@ -3747,19 +3747,19 @@
         <v>80551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67086</v>
+        <v>66419</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96417</v>
+        <v>96170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.186566779264581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1553794651630156</v>
+        <v>0.1538345356295535</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.223313718502721</v>
+        <v>0.2227410116987911</v>
       </c>
     </row>
     <row r="23">
@@ -3809,19 +3809,19 @@
         <v>469704</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>439499</v>
+        <v>443219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>496849</v>
+        <v>502575</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2961845964458432</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2771380979421909</v>
+        <v>0.2794835784243037</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3133012893083659</v>
+        <v>0.3169119418874436</v>
       </c>
     </row>
     <row r="25">
@@ -3838,19 +3838,19 @@
         <v>542276</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>511954</v>
+        <v>508797</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>574535</v>
+        <v>571755</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3419466918436013</v>
+        <v>0.3419466918436014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3228262271404316</v>
+        <v>0.3208354013348378</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3622884501504915</v>
+        <v>0.3605355820297885</v>
       </c>
     </row>
     <row r="26">
@@ -3867,19 +3867,19 @@
         <v>347637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>321412</v>
+        <v>318584</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>377132</v>
+        <v>375986</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2192118276854751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2026749194091041</v>
+        <v>0.2008916340596432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2378108510641968</v>
+        <v>0.2370881156009278</v>
       </c>
     </row>
     <row r="27">
@@ -3896,19 +3896,19 @@
         <v>226232</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>202220</v>
+        <v>204627</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>252036</v>
+        <v>253007</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1426568840250805</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1275154357288574</v>
+        <v>0.1290332683502088</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1589282895503885</v>
+        <v>0.1595404906284636</v>
       </c>
     </row>
     <row r="28">
